--- a/Music and Memory/BehaviouralResults/CBSScores_OA.xlsx
+++ b/Music and Memory/BehaviouralResults/CBSScores_OA.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,10 +829,82 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>81</v>
+      </c>
+      <c r="K10">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/Music and Memory/BehaviouralResults/CBSScores_OA.xlsx
+++ b/Music and Memory/BehaviouralResults/CBSScores_OA.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +998,42 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>110</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
